--- a/map/4.2.xlsx
+++ b/map/4.2.xlsx
@@ -62,7 +62,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +385,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,13 +487,13 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
@@ -517,13 +517,13 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -551,8 +551,8 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -574,54 +574,55 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="6"/>
+      <c r="W6" s="5"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -640,9 +641,9 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
@@ -670,12 +671,12 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
       <c r="U8" s="3"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -704,11 +705,11 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
+      <c r="W9" s="6"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -734,11 +735,11 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
+      <c r="W10" s="6"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -764,8 +765,8 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
